--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.8794777780827</v>
+        <v>409.5944332049631</v>
       </c>
       <c r="AB2" t="n">
-        <v>489.6664900242349</v>
+        <v>560.4251735421055</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.9334074675563</v>
+        <v>506.9389815409175</v>
       </c>
       <c r="AD2" t="n">
-        <v>357879.4777780827</v>
+        <v>409594.4332049631</v>
       </c>
       <c r="AE2" t="n">
-        <v>489666.4900242349</v>
+        <v>560425.1735421056</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.493339927380186e-06</v>
+        <v>3.594559445854678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.19075520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>442933.4074675563</v>
+        <v>506938.9815409175</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>178.5442000914635</v>
+        <v>213.077671273397</v>
       </c>
       <c r="AB3" t="n">
-        <v>244.2920513792195</v>
+        <v>291.5422701595418</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.9771608617051</v>
+        <v>263.7178850777471</v>
       </c>
       <c r="AD3" t="n">
-        <v>178544.2000914635</v>
+        <v>213077.671273397</v>
       </c>
       <c r="AE3" t="n">
-        <v>244292.0513792195</v>
+        <v>291542.2701595418</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.861619149838775e-06</v>
+        <v>5.567158909588072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.87109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>220977.1608617051</v>
+        <v>263717.8850777471</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.3762566779552</v>
+        <v>176.824387005317</v>
       </c>
       <c r="AB4" t="n">
-        <v>194.8054755838318</v>
+        <v>241.9389272419565</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.2135144053681</v>
+        <v>218.8486155894713</v>
       </c>
       <c r="AD4" t="n">
-        <v>142376.2566779552</v>
+        <v>176824.3870053171</v>
       </c>
       <c r="AE4" t="n">
-        <v>194805.4755838318</v>
+        <v>241938.9272419565</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.384935768186124e-06</v>
+        <v>6.321605855628719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.930338541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>176213.5144053681</v>
+        <v>218848.6155894713</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.4542923678975</v>
+        <v>172.9024226952593</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.4392709899596</v>
+        <v>236.5727226480844</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.359452846418</v>
+        <v>213.9945540305212</v>
       </c>
       <c r="AD5" t="n">
-        <v>138454.2923678975</v>
+        <v>172902.4226952593</v>
       </c>
       <c r="AE5" t="n">
-        <v>189439.2709899596</v>
+        <v>236572.7226480843</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.463363236413023e-06</v>
+        <v>6.434671945668708e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.809895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>171359.452846418</v>
+        <v>213994.5540305212</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>256.526515921278</v>
+        <v>298.5283823502758</v>
       </c>
       <c r="AB2" t="n">
-        <v>350.9908962344857</v>
+        <v>408.4597028743756</v>
       </c>
       <c r="AC2" t="n">
-        <v>317.492817716788</v>
+        <v>369.476882108838</v>
       </c>
       <c r="AD2" t="n">
-        <v>256526.515921278</v>
+        <v>298528.3823502758</v>
       </c>
       <c r="AE2" t="n">
-        <v>350990.8962344857</v>
+        <v>408459.7028743756</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.072106305726402e-06</v>
+        <v>4.497448062161144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>317492.817716788</v>
+        <v>369476.8821088379</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.8879755834279</v>
+        <v>174.1403357569877</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.7150966670582</v>
+        <v>238.2664899120101</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.272813757146</v>
+        <v>215.5266705239957</v>
       </c>
       <c r="AD3" t="n">
-        <v>148887.9755834279</v>
+        <v>174140.3357569877</v>
       </c>
       <c r="AE3" t="n">
-        <v>203715.0966670582</v>
+        <v>238266.4899120101</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.361044547305893e-06</v>
+        <v>6.384405159326563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.210286458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>184272.813757146</v>
+        <v>215526.6705239957</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.5202534832118</v>
+        <v>165.1046068486519</v>
       </c>
       <c r="AB4" t="n">
-        <v>179.9518130797318</v>
+        <v>225.9034069914056</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.7774646034085</v>
+        <v>204.3435028856339</v>
       </c>
       <c r="AD4" t="n">
-        <v>131520.2534832118</v>
+        <v>165104.6068486519</v>
       </c>
       <c r="AE4" t="n">
-        <v>179951.8130797318</v>
+        <v>225903.4069914056</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.555954803694607e-06</v>
+        <v>6.669746442359895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>162777.4646034085</v>
+        <v>204343.5028856338</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.6842782969019</v>
+        <v>155.7534332338609</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.5985302478866</v>
+        <v>213.1087187069911</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.3168459576167</v>
+        <v>192.769921693622</v>
       </c>
       <c r="AD2" t="n">
-        <v>124684.2782969019</v>
+        <v>155753.4332338609</v>
       </c>
       <c r="AE2" t="n">
-        <v>170598.5302478866</v>
+        <v>213108.7187069911</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.614957372273251e-06</v>
+        <v>7.13990869254813e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.600911458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>154316.8459576168</v>
+        <v>192769.921693622</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.0410555834356</v>
+        <v>177.1269176304135</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.4515710089388</v>
+        <v>242.3528629899225</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.5116316004312</v>
+        <v>219.223045890614</v>
       </c>
       <c r="AD2" t="n">
-        <v>145041.0555834356</v>
+        <v>177126.9176304135</v>
       </c>
       <c r="AE2" t="n">
-        <v>198451.5710089388</v>
+        <v>242352.8629899225</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.243312392828256e-06</v>
+        <v>6.412892425485625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.91015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>179511.6316004312</v>
+        <v>219223.045890614</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.3465677869469</v>
+        <v>153.4110538307314</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.9776804138587</v>
+        <v>209.9037718691449</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.087178984944</v>
+        <v>189.8708504838077</v>
       </c>
       <c r="AD3" t="n">
-        <v>129346.5677869469</v>
+        <v>153411.0538307314</v>
       </c>
       <c r="AE3" t="n">
-        <v>176977.6804138587</v>
+        <v>209903.7718691449</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.663880276447414e-06</v>
+        <v>7.048494131318595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.197265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>160087.178984944</v>
+        <v>189870.8504838077</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.9103050986032</v>
+        <v>161.0603003011468</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.1172547908871</v>
+        <v>220.3698083508995</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.0225553863409</v>
+        <v>199.3380231329214</v>
       </c>
       <c r="AD2" t="n">
-        <v>130910.3050986032</v>
+        <v>161060.3003011468</v>
       </c>
       <c r="AE2" t="n">
-        <v>179117.2547908871</v>
+        <v>220369.8083508995</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.45251777250988e-06</v>
+        <v>7.037150866238545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.18359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>162022.5553863409</v>
+        <v>199338.0231329214</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.553699721988</v>
+        <v>325.3134547820584</v>
       </c>
       <c r="AB2" t="n">
-        <v>375.6564844140027</v>
+        <v>445.1082206495379</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.8043567787167</v>
+        <v>402.6277167840565</v>
       </c>
       <c r="AD2" t="n">
-        <v>274553.6997219881</v>
+        <v>325313.4547820584</v>
       </c>
       <c r="AE2" t="n">
-        <v>375656.4844140027</v>
+        <v>445108.2206495379</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.919406066392119e-06</v>
+        <v>4.256162075949315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.673828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>339804.3567787167</v>
+        <v>402627.7167840565</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.5620425300133</v>
+        <v>190.2881809391819</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.2150936193106</v>
+        <v>260.3606840829285</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.7707057371171</v>
+        <v>235.5122258126449</v>
       </c>
       <c r="AD3" t="n">
-        <v>156562.0425300132</v>
+        <v>190288.1809391819</v>
       </c>
       <c r="AE3" t="n">
-        <v>214215.0936193106</v>
+        <v>260360.6840829285</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.217632442735605e-06</v>
+        <v>6.148828509919826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.386067708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>193770.7057371171</v>
+        <v>235512.2258126449</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.9283269821762</v>
+        <v>166.7397167373654</v>
       </c>
       <c r="AB4" t="n">
-        <v>181.8784013608324</v>
+        <v>228.1406364770995</v>
       </c>
       <c r="AC4" t="n">
-        <v>164.5201820029451</v>
+        <v>206.3672143291852</v>
       </c>
       <c r="AD4" t="n">
-        <v>132928.3269821762</v>
+        <v>166739.7167373654</v>
       </c>
       <c r="AE4" t="n">
-        <v>181878.4013608324</v>
+        <v>228140.6364770995</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.537139900100094e-06</v>
+        <v>6.614634051215524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.868489583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>164520.1820029451</v>
+        <v>206367.2143291852</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.4217486603549</v>
+        <v>168.5132177110017</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.8170344353729</v>
+        <v>230.5672187505685</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.6555490437042</v>
+        <v>208.5622069962047</v>
       </c>
       <c r="AD2" t="n">
-        <v>131421.7486603549</v>
+        <v>168513.2177110018</v>
       </c>
       <c r="AE2" t="n">
-        <v>179817.0344353729</v>
+        <v>230567.2187505685</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.273912824177324e-06</v>
+        <v>6.847812276530326e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>162655.5490437042</v>
+        <v>208562.2069962047</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.4891400056139</v>
+        <v>234.4220808020561</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.6863304290516</v>
+        <v>320.7466329255287</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.3752139811787</v>
+        <v>290.1350244499381</v>
       </c>
       <c r="AD2" t="n">
-        <v>201489.1400056139</v>
+        <v>234422.0808020562</v>
       </c>
       <c r="AE2" t="n">
-        <v>275686.3304290516</v>
+        <v>320746.6329255287</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.585068323095039e-06</v>
+        <v>5.323264310792034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.036458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>249375.2139811787</v>
+        <v>290135.0244499381</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.4741192685277</v>
+        <v>158.3216297018473</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.6792255105889</v>
+        <v>216.62263841532</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.2944011812124</v>
+        <v>195.9484778368065</v>
       </c>
       <c r="AD3" t="n">
-        <v>125474.1192685277</v>
+        <v>158321.6297018473</v>
       </c>
       <c r="AE3" t="n">
-        <v>171679.2255105889</v>
+        <v>216622.63841532</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.640905077329158e-06</v>
+        <v>6.891016332595829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.979166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>155294.4011812124</v>
+        <v>195948.4778368065</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.3139402802311</v>
+        <v>273.1064708884675</v>
       </c>
       <c r="AB2" t="n">
-        <v>316.4939379420877</v>
+        <v>373.6763220767499</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.2882007070204</v>
+        <v>338.0131783557561</v>
       </c>
       <c r="AD2" t="n">
-        <v>231313.9402802311</v>
+        <v>273106.4708884675</v>
       </c>
       <c r="AE2" t="n">
-        <v>316493.9379420877</v>
+        <v>373676.3220767499</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.234475884590387e-06</v>
+        <v>4.756110738462275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.814453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>286288.2007070204</v>
+        <v>338013.178355756</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.6261556626141</v>
+        <v>166.7017635361049</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.7791542825213</v>
+        <v>228.0887072327579</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.2851437686035</v>
+        <v>206.3202411390403</v>
       </c>
       <c r="AD3" t="n">
-        <v>141626.1556626141</v>
+        <v>166701.7635361049</v>
       </c>
       <c r="AE3" t="n">
-        <v>193779.1542825213</v>
+        <v>228088.7072327579</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.499190764131637e-06</v>
+        <v>6.615801221342755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.054036458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>175285.1437686034</v>
+        <v>206320.2411390403</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.4974789791957</v>
+        <v>162.8461626112105</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.1841637648254</v>
+        <v>222.813303950212</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.2739558546957</v>
+        <v>201.548314941704</v>
       </c>
       <c r="AD4" t="n">
-        <v>129497.4789791957</v>
+        <v>162846.1626112105</v>
       </c>
       <c r="AE4" t="n">
-        <v>177184.1637648254</v>
+        <v>222813.303950212</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.591233848418658e-06</v>
+        <v>6.751145282389643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.9140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>160273.9558546957</v>
+        <v>201548.314941704</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.0150398412637</v>
+        <v>376.5070110912388</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.6999161624046</v>
+        <v>515.1535028920658</v>
       </c>
       <c r="AC2" t="n">
-        <v>402.2583803041162</v>
+        <v>465.9879755985286</v>
       </c>
       <c r="AD2" t="n">
-        <v>325015.0398412637</v>
+        <v>376507.0110912388</v>
       </c>
       <c r="AE2" t="n">
-        <v>444699.9161624046</v>
+        <v>515153.5028920659</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.629500596403878e-06</v>
+        <v>3.804289169137516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.650390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>402258.3803041162</v>
+        <v>465987.9755985286</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.349166426577</v>
+        <v>205.6771472598932</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.4474888964439</v>
+        <v>281.4165467161939</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.0721496053523</v>
+        <v>254.558546468287</v>
       </c>
       <c r="AD3" t="n">
-        <v>171349.166426577</v>
+        <v>205677.1472598932</v>
       </c>
       <c r="AE3" t="n">
-        <v>234447.4888964439</v>
+        <v>281416.5467161938</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.971825829278198e-06</v>
+        <v>5.74632841106337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.71484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>212072.1496053523</v>
+        <v>254558.546468287</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.5034571919812</v>
+        <v>171.7460971707259</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.1382963543842</v>
+        <v>234.9905870519367</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.1826414041322</v>
+        <v>212.5634152351281</v>
       </c>
       <c r="AD4" t="n">
-        <v>137503.4571919812</v>
+        <v>171746.0971707259</v>
       </c>
       <c r="AE4" t="n">
-        <v>188138.2963543842</v>
+        <v>234990.5870519367</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.47156269996197e-06</v>
+        <v>6.469333976135676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.852213541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>170182.6414041322</v>
+        <v>212563.4152351281</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.5685422429169</v>
+        <v>170.8111822216616</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.8591044755385</v>
+        <v>233.711395173091</v>
       </c>
       <c r="AC5" t="n">
-        <v>169.025533802846</v>
+        <v>211.4063076338419</v>
       </c>
       <c r="AD5" t="n">
-        <v>136568.5422429169</v>
+        <v>170811.1822216616</v>
       </c>
       <c r="AE5" t="n">
-        <v>186859.1044755385</v>
+        <v>233711.395173091</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.492267429067512e-06</v>
+        <v>6.499289008963529e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.819661458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>169025.533802846</v>
+        <v>211406.3076338419</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.2891201699192</v>
+        <v>198.5871057566939</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.5241103746024</v>
+        <v>271.7156391409661</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.8095286126104</v>
+        <v>245.7834798967265</v>
       </c>
       <c r="AD2" t="n">
-        <v>166289.1201699192</v>
+        <v>198587.1057566939</v>
       </c>
       <c r="AE2" t="n">
-        <v>227524.1103746024</v>
+        <v>271715.6391409661</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.996858517197013e-06</v>
+        <v>6.002020939748746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.291015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>205809.5286126104</v>
+        <v>245783.4798967265</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.7242275444126</v>
+        <v>155.0117447525601</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.8626552720814</v>
+        <v>212.0939078058894</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.7922544882773</v>
+        <v>191.8519629206251</v>
       </c>
       <c r="AD3" t="n">
-        <v>130724.2275444126</v>
+        <v>155011.7447525601</v>
       </c>
       <c r="AE3" t="n">
-        <v>178862.6552720814</v>
+        <v>212093.9078058894</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.66629362904158e-06</v>
+        <v>7.007301347300407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.102864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>161792.2544882773</v>
+        <v>191851.9629206251</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.4500563231297</v>
+        <v>157.7122320908588</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.0145456439988</v>
+        <v>215.7888337192408</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.5022802352237</v>
+        <v>195.1942502906686</v>
       </c>
       <c r="AD2" t="n">
-        <v>126450.0563231297</v>
+        <v>157712.2320908588</v>
       </c>
       <c r="AE2" t="n">
-        <v>173014.5456439988</v>
+        <v>215788.8337192409</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.631328306438101e-06</v>
+        <v>7.103284733003352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.454427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>156502.2802352236</v>
+        <v>195194.2502906686</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.6681429621147</v>
+        <v>157.9303187298438</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.3129414047614</v>
+        <v>216.0872294800034</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.7721975233802</v>
+        <v>195.4641675788252</v>
       </c>
       <c r="AD3" t="n">
-        <v>126668.1429621147</v>
+        <v>157930.3187298438</v>
       </c>
       <c r="AE3" t="n">
-        <v>173312.9414047614</v>
+        <v>216087.2294800034</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.640131096797961e-06</v>
+        <v>7.116785984098873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.44140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>156772.1975233802</v>
+        <v>195464.1675788252</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.827411986575</v>
+        <v>154.5004523469402</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.4261279598243</v>
+        <v>211.3943349798916</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.2563360984497</v>
+        <v>191.2191563432837</v>
       </c>
       <c r="AD2" t="n">
-        <v>123827.411986575</v>
+        <v>154500.4523469402</v>
       </c>
       <c r="AE2" t="n">
-        <v>169426.1279598243</v>
+        <v>211394.3349798916</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.550627009177822e-06</v>
+        <v>7.110264939059105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.848307291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>153256.3360984497</v>
+        <v>191219.1563432837</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.7372224557122</v>
+        <v>177.1960032515352</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.5628766518734</v>
+        <v>242.4473889845836</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.1849459679678</v>
+        <v>219.3085504570128</v>
       </c>
       <c r="AD2" t="n">
-        <v>140737.2224557122</v>
+        <v>177196.0032515352</v>
       </c>
       <c r="AE2" t="n">
-        <v>192562.8766518734</v>
+        <v>242447.3889845836</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.977032182700331e-06</v>
+        <v>6.481274428699929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.638671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>174184.9459679678</v>
+        <v>219308.5504570128</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.5051563081428</v>
+        <v>256.820542303656</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.8636622771608</v>
+        <v>351.3931961023837</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.7222881932647</v>
+        <v>317.8567226499252</v>
       </c>
       <c r="AD2" t="n">
-        <v>215505.1563081428</v>
+        <v>256820.542303656</v>
       </c>
       <c r="AE2" t="n">
-        <v>294863.6622771608</v>
+        <v>351393.1961023837</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409753324946405e-06</v>
+        <v>5.037504111271378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.401041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>266722.2881932647</v>
+        <v>317856.7226499253</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.1224207770778</v>
+        <v>161.2258624793906</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.3027484694022</v>
+        <v>220.5963378272603</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.5721001944841</v>
+        <v>199.5429329539946</v>
       </c>
       <c r="AD3" t="n">
-        <v>128122.4207770779</v>
+        <v>161225.8624793906</v>
       </c>
       <c r="AE3" t="n">
-        <v>175302.7484694022</v>
+        <v>220596.3378272603</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.598267776319059e-06</v>
+        <v>6.793392547919299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.97265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>158572.1001944841</v>
+        <v>199542.9329539945</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.6579971233356</v>
+        <v>160.7614388256483</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.6673035374268</v>
+        <v>219.9608928952849</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.9973012349637</v>
+        <v>198.9681339944741</v>
       </c>
       <c r="AD4" t="n">
-        <v>127657.9971233356</v>
+        <v>160761.4388256483</v>
       </c>
       <c r="AE4" t="n">
-        <v>174667.3035374268</v>
+        <v>219960.8928952849</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.621606737705695e-06</v>
+        <v>6.827873081475149e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.936848958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>157997.3012349637</v>
+        <v>198968.1339944741</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.2838608978233</v>
+        <v>345.9288646099076</v>
       </c>
       <c r="AB2" t="n">
-        <v>414.9663584200371</v>
+        <v>473.3151338636944</v>
       </c>
       <c r="AC2" t="n">
-        <v>375.3625515813698</v>
+        <v>428.1426017897052</v>
       </c>
       <c r="AD2" t="n">
-        <v>303283.8608978234</v>
+        <v>345928.8646099076</v>
       </c>
       <c r="AE2" t="n">
-        <v>414966.3584200371</v>
+        <v>473315.1338636944</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.769801525830854e-06</v>
+        <v>4.022219955252981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.15234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>375362.5515813698</v>
+        <v>428142.6017897052</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.3214561623926</v>
+        <v>198.4373875252187</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.8318656722964</v>
+        <v>271.5107880515596</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.3742279661024</v>
+        <v>245.5981795077826</v>
       </c>
       <c r="AD3" t="n">
-        <v>164321.4561623926</v>
+        <v>198437.3875252187</v>
       </c>
       <c r="AE3" t="n">
-        <v>224831.8656722964</v>
+        <v>271510.7880515596</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.083910458601365e-06</v>
+        <v>5.930528230583365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.565104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>203374.2279661024</v>
+        <v>245598.1795077826</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.1332215109012</v>
+        <v>168.1638120191557</v>
       </c>
       <c r="AB4" t="n">
-        <v>183.5269912112282</v>
+        <v>230.0891464682938</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.0114327518301</v>
+        <v>208.1297612615714</v>
       </c>
       <c r="AD4" t="n">
-        <v>134133.2215109012</v>
+        <v>168163.8120191557</v>
       </c>
       <c r="AE4" t="n">
-        <v>183526.9912112282</v>
+        <v>230089.1464682938</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.529253701054571e-06</v>
+        <v>6.577241888593583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.819661458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>166011.4327518301</v>
+        <v>208129.7612615714</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>134.5214775755774</v>
+        <v>168.552068083832</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.0582202875667</v>
+        <v>230.6203755446323</v>
       </c>
       <c r="AC5" t="n">
-        <v>166.4919620707077</v>
+        <v>208.610290580449</v>
       </c>
       <c r="AD5" t="n">
-        <v>134521.4775755774</v>
+        <v>168552.068083832</v>
       </c>
       <c r="AE5" t="n">
-        <v>184058.2202875667</v>
+        <v>230620.3755446323</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.528684329766543e-06</v>
+        <v>6.576415065250719e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.819661458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>166491.9620707077</v>
+        <v>208610.290580449</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.6996506213959</v>
+        <v>204.393634442962</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.2445956652093</v>
+        <v>279.6603878554804</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.1293219737255</v>
+        <v>252.969992944455</v>
       </c>
       <c r="AD2" t="n">
-        <v>161699.6506213959</v>
+        <v>204393.634442962</v>
       </c>
       <c r="AE2" t="n">
-        <v>221244.5956652093</v>
+        <v>279660.3878554804</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.407955494029431e-06</v>
+        <v>5.680858765824235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.64713541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>200129.3219737255</v>
+        <v>252969.9929444549</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.7838436306391</v>
+        <v>165.5540075339021</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.0489569819896</v>
+        <v>226.5182968351237</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.5790214385046</v>
+        <v>204.899708505671</v>
       </c>
       <c r="AD2" t="n">
-        <v>133783.8436306391</v>
+        <v>165554.0075339021</v>
       </c>
       <c r="AE2" t="n">
-        <v>183048.9569819896</v>
+        <v>226518.2968351237</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.478123173903339e-06</v>
+        <v>6.815285311249525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.59765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>165579.0214385046</v>
+        <v>204899.708505671</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.6081152792062</v>
+        <v>159.2076869818771</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.5990529976574</v>
+        <v>217.8349810759447</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.9355644309196</v>
+        <v>197.0451162154351</v>
       </c>
       <c r="AD3" t="n">
-        <v>127608.1152792062</v>
+        <v>159207.6869818771</v>
       </c>
       <c r="AE3" t="n">
-        <v>174599.0529976574</v>
+        <v>217834.9810759447</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.669693370359762e-06</v>
+        <v>7.106837261761111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.28515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>157935.5644309196</v>
+        <v>197045.1162154351</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.1810427846735</v>
+        <v>219.9268076952572</v>
       </c>
       <c r="AB2" t="n">
-        <v>245.1634076475856</v>
+        <v>300.9135607744996</v>
       </c>
       <c r="AC2" t="n">
-        <v>221.7653561107749</v>
+        <v>272.1947928691054</v>
       </c>
       <c r="AD2" t="n">
-        <v>179181.0427846735</v>
+        <v>219926.8076952572</v>
       </c>
       <c r="AE2" t="n">
-        <v>245163.4076475856</v>
+        <v>300913.5607744996</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.785720208588288e-06</v>
+        <v>5.6517421839742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.65234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>221765.3561107749</v>
+        <v>272194.7928691054</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.2739751106167</v>
+        <v>156.772728078261</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.9830882621981</v>
+        <v>214.5033628812134</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.7103163298643</v>
+        <v>194.0314629852524</v>
       </c>
       <c r="AD3" t="n">
-        <v>132273.9751106167</v>
+        <v>156772.728078261</v>
       </c>
       <c r="AE3" t="n">
-        <v>180983.0882621981</v>
+        <v>214503.3628812134</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.655400451068381e-06</v>
+        <v>6.950097118351814e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.034505208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>163710.3163298643</v>
+        <v>194031.4629852524</v>
       </c>
     </row>
   </sheetData>
